--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_QuocBaoGps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_QuocBaoGps.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -246,7 +246,67 @@
     <t>Quốc Bảo GPS</t>
   </si>
   <si>
-    <t>H</t>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi diode chống quá áp</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>123.31.30.77/9400</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t>123.31.30.77/8110</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>203.162.121.026/9400</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200401</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>203.162.121.016/9400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi motion</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
   </si>
 </sst>
 </file>
@@ -698,30 +758,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,6 +775,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,39 +1142,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1159,58 +1219,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1295,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1337,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1308,7 +1368,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1397,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1426,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1395,7 +1455,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1484,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1513,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1484,7 +1544,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1573,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1542,7 +1602,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1571,7 +1631,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3287,6 +3347,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3298,13 +3365,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3348,39 +3408,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3425,58 +3485,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3501,23 +3561,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,7 +3603,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3574,7 +3634,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3603,7 +3663,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3632,7 +3692,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3661,7 +3721,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3690,7 +3750,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3719,7 +3779,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3750,7 +3810,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3779,7 +3839,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3808,7 +3868,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3837,7 +3897,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5553,13 +5613,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5571,6 +5624,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5614,39 +5674,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5691,58 +5751,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5767,23 +5827,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5809,7 +5869,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5840,7 +5900,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5869,7 +5929,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5958,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5927,7 +5987,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5956,7 +6016,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5985,7 +6045,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6016,7 +6076,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6045,7 +6105,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6074,7 +6134,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6103,7 +6163,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7819,13 +7879,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7837,6 +7890,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7847,8 +7907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7880,41 +7940,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7959,58 +8019,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8035,23 +8095,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8070,22 +8130,38 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>84</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8109,22 +8185,38 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="K7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8146,22 +8238,38 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8183,14 +8291,24 @@
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="39"/>
@@ -8198,7 +8316,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8220,22 +8338,38 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8257,22 +8391,40 @@
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8294,12 +8446,16 @@
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>74</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
@@ -8309,7 +8465,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8333,22 +8489,34 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8377,7 +8545,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8406,7 +8574,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8435,7 +8603,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8585,7 +8753,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8617,7 +8785,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8830,7 +8998,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -8894,7 +9062,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9022,7 +9190,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9086,7 +9254,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10151,13 +10319,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10169,6 +10330,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10212,39 +10380,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10289,58 +10457,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10365,23 +10533,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10407,7 +10575,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10438,7 +10606,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10467,7 +10635,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10496,7 +10664,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10525,7 +10693,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10554,7 +10722,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10583,7 +10751,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10614,7 +10782,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10643,7 +10811,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10672,7 +10840,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10701,7 +10869,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12417,13 +12585,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12435,6 +12596,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12478,39 +12646,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12555,58 +12723,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12631,23 +12799,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12673,7 +12841,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12704,7 +12872,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12733,7 +12901,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12762,7 +12930,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12791,7 +12959,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12820,7 +12988,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12849,7 +13017,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12880,7 +13048,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12909,7 +13077,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12938,7 +13106,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12967,7 +13135,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14683,13 +14851,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14701,6 +14862,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14744,39 +14912,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14821,58 +14989,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14897,23 +15065,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14939,7 +15107,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14970,7 +15138,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14999,7 +15167,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15028,7 +15196,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15057,7 +15225,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15086,7 +15254,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15115,7 +15283,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15146,7 +15314,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15175,7 +15343,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15204,7 +15372,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15233,7 +15401,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16949,13 +17117,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16967,6 +17128,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17010,39 +17178,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17087,58 +17255,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17163,23 +17331,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17205,7 +17373,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17236,7 +17404,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17265,7 +17433,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17294,7 +17462,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17323,7 +17491,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17352,7 +17520,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17381,7 +17549,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17412,7 +17580,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17441,7 +17609,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17470,7 +17638,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17499,7 +17667,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19215,13 +19383,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19233,6 +19394,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19276,39 +19444,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19353,58 +19521,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19429,23 +19597,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19471,7 +19639,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19502,7 +19670,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19531,7 +19699,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19560,7 +19728,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19589,7 +19757,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19618,7 +19786,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19647,7 +19815,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19678,7 +19846,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19707,7 +19875,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19736,7 +19904,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19765,7 +19933,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20996,6 +21164,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21007,13 +21182,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_QuocBaoGps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_QuocBaoGps.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Còn BH</t>
   </si>
   <si>
-    <t>Đổi mới</t>
-  </si>
-  <si>
     <t>ĐM</t>
   </si>
   <si>
@@ -300,13 +297,19 @@
     <t>203.162.121.016/9400</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Thiết bị lỗi motion</t>
   </si>
   <si>
     <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>ID mới : 860906041252195</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
+  </si>
+  <si>
+    <t>ID mới : 862549040726658</t>
   </si>
 </sst>
 </file>
@@ -758,6 +761,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,30 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,39 +1145,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1219,58 +1222,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1295,23 +1298,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1340,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1368,7 +1371,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1429,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1455,7 +1458,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1487,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1516,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1544,7 +1547,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1576,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1605,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3347,13 +3350,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3365,6 +3361,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3408,39 +3411,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3485,58 +3488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3561,23 +3564,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3603,7 +3606,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3634,7 +3637,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3663,7 +3666,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3692,7 +3695,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3721,7 +3724,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3750,7 +3753,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3779,7 +3782,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3810,7 +3813,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3839,7 +3842,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3868,7 +3871,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3897,7 +3900,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5613,6 +5616,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5624,13 +5634,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5674,39 +5677,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5751,58 +5754,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5827,23 +5830,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5869,7 +5872,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5900,7 +5903,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5929,7 +5932,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5958,7 +5961,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5987,7 +5990,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6016,7 +6019,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6045,7 +6048,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6076,7 +6079,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6105,7 +6108,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6134,7 +6137,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6163,7 +6166,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7879,6 +7882,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7890,13 +7900,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7907,8 +7910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7940,41 +7943,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8019,58 +8022,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8095,23 +8098,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8121,7 +8124,9 @@
       <c r="B6" s="61">
         <v>44854</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44860</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -8134,10 +8139,10 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>81</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>83</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>69</v>
@@ -8157,11 +8162,11 @@
         <v>72</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8176,7 +8181,9 @@
       <c r="B7" s="61">
         <v>44854</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44860</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -8216,7 +8223,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8229,7 +8236,9 @@
       <c r="B8" s="61">
         <v>44854</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44860</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>45</v>
       </c>
@@ -8242,7 +8251,7 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="38" t="s">
@@ -8269,7 +8278,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8282,7 +8291,9 @@
       <c r="B9" s="61">
         <v>44854</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="61">
+        <v>44860</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
@@ -8293,30 +8304,40 @@
       <c r="G9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="I9" s="51" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="39" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8329,7 +8350,9 @@
       <c r="B10" s="61">
         <v>44854</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="61">
+        <v>44860</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>45</v>
       </c>
@@ -8342,7 +8365,7 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>66</v>
@@ -8369,7 +8392,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8382,7 +8405,9 @@
       <c r="B11" s="61">
         <v>44854</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="61">
+        <v>44860</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>45</v>
       </c>
@@ -8424,7 +8449,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8437,7 +8462,9 @@
       <c r="B12" s="61">
         <v>44854</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="61">
+        <v>44860</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>45</v>
       </c>
@@ -8457,15 +8484,25 @@
         <v>69</v>
       </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8480,7 +8517,9 @@
       <c r="B13" s="61">
         <v>44854</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="61">
+        <v>44860</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>45</v>
       </c>
@@ -8491,19 +8530,25 @@
       <c r="G13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
+      <c r="L13" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="M13" s="39" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>65</v>
@@ -8512,11 +8557,11 @@
         <v>18</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8545,7 +8590,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8574,7 +8619,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8603,7 +8648,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8753,7 +8798,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8934,7 +8979,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -8998,7 +9043,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9190,7 +9235,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9254,7 +9299,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10319,6 +10364,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10330,13 +10382,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10380,39 +10425,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10457,58 +10502,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10533,23 +10578,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10575,7 +10620,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10606,7 +10651,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10635,7 +10680,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10664,7 +10709,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10693,7 +10738,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10722,7 +10767,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10751,7 +10796,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10782,7 +10827,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10811,7 +10856,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10840,7 +10885,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10869,7 +10914,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12585,6 +12630,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12596,13 +12648,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12646,39 +12691,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12723,58 +12768,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12799,23 +12844,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12841,7 +12886,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12872,7 +12917,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12901,7 +12946,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12930,7 +12975,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12959,7 +13004,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12988,7 +13033,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13017,7 +13062,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13048,7 +13093,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13077,7 +13122,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13106,7 +13151,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13135,7 +13180,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14851,6 +14896,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14862,13 +14914,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14912,39 +14957,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14989,58 +15034,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15065,23 +15110,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15107,7 +15152,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15138,7 +15183,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15167,7 +15212,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15196,7 +15241,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15225,7 +15270,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15254,7 +15299,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15283,7 +15328,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15314,7 +15359,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15343,7 +15388,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15372,7 +15417,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15401,7 +15446,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17117,6 +17162,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17128,13 +17180,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17178,39 +17223,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17255,58 +17300,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17331,23 +17376,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17373,7 +17418,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17404,7 +17449,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17433,7 +17478,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17462,7 +17507,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17491,7 +17536,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17520,7 +17565,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17549,7 +17594,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17580,7 +17625,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17609,7 +17654,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17638,7 +17683,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17667,7 +17712,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19383,6 +19428,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19394,13 +19446,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19444,39 +19489,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19521,58 +19566,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19597,23 +19642,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19639,7 +19684,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19670,7 +19715,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19699,7 +19744,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19728,7 +19773,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19757,7 +19802,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19786,7 +19831,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19815,7 +19860,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19846,7 +19891,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19875,7 +19920,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19904,7 +19949,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19933,7 +19978,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21164,13 +21209,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21182,6 +21220,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
